--- a/AssignmentNo2/AssignmentNo2/Data/result.xlsx
+++ b/AssignmentNo2/AssignmentNo2/Data/result.xlsx
@@ -397,7 +397,7 @@
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -412,92 +412,92 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>731354</v>
+        <v>197784</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>874024</v>
+        <v>464444</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>544924</v>
+        <v>811174</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>547834</v>
+        <v>247044</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>824144</v>
+        <v>600594</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>216494</v>
+        <v>942224</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>914204</v>
+        <v>879584</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>891874</v>
+        <v>932654</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>861944</v>
+        <v>242384</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>317424</v>
+        <v>650934</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>494584</v>
+        <v>513024</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>540204</v>
+        <v>981414</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>677044</v>
+        <v>325524</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>742404</v>
+        <v>270534</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>151334</v>
+        <v>300714</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>277114</v>
+        <v>985154</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>586274</v>
+        <v>909494</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>549374</v>
+        <v>646734</v>
       </c>
     </row>
   </sheetData>
